--- a/All_models_raw_lagged.xlsx
+++ b/All_models_raw_lagged.xlsx
@@ -437,7 +437,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1.81, 2.24]</t>
+          <t>[ 1.81,  1.81]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[2.41, 2.89]</t>
+          <t>[ 2.41,  2.41]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.28, 1.6]</t>
+          <t>[ 1.28,  1.28]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1.28, 1.6]</t>
+          <t>[ 1.28,  1.28]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[36.12, 47.5]</t>
+          <t>[36.12, 36.12]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.59, 47.86]</t>
+          <t>[36.59, 36.59]</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.18, 0.06]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.2, 0.05]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.12, 0.14]</t>
+          <t>[-0.12, -0.12]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.11, 0.08]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.96, 1.22]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.93, 1.17]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.18, 0.22]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.28, 0.16]</t>
+          <t>[-0.28, -0.28]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[-0.19, 0.18]</t>
+          <t>[-0.19, -0.19]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.06, 0.26]</t>
+          <t>[-0.06, -0.06]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.76, 1.17]</t>
+          <t>[ 0.76,  0.76]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.7, 1.05]</t>
+          <t>[ 0.70,  0.70]</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1.01]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.02]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.04, 0.11]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.07, 0.08]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.08, 0.06]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.09, 0.04]</t>
+          <t>[-0.09, -0.09]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[1, 1.2]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.88, 1.04]</t>
+          <t>[ 0.88,  0.88]</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[0.97, 1.02]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.95, 0.99]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.16, 0.32]</t>
+          <t>[-0.16, -0.16]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.01, 0.67]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.05, 0.65]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.65, 0.09]</t>
+          <t>[-0.65, -0.65]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.53, 1.05]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.74, 1.46]</t>
+          <t>[ 0.74,  0.74]</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.42, 0.51]</t>
+          <t>[-0.42, -0.42]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-1.18, 0.09]</t>
+          <t>[-1.18, -1.18]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[-0.7, 0.64]</t>
+          <t>[-0.70, -0.70]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.35, 1.06]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.84, 3.62]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.61, 2.33]</t>
+          <t>[ 0.61,  0.61]</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.93, 1.04]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.95, 1.07]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.43, 0.53]</t>
+          <t>[ 0.43,  0.43]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.29, 0.4]</t>
+          <t>[ 0.29,  0.29]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.17, 0.28]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.13, 0.25]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.22, 0.43]</t>
+          <t>[ 0.22,  0.22]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.33, 0.56]</t>
+          <t>[ 0.33,  0.33]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.38, 0.56]</t>
+          <t>[ 0.38,  0.38]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.41, 0.59]</t>
+          <t>[ 0.41,  0.41]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.37, 0.54]</t>
+          <t>[ 0.37,  0.37]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[0.36, 0.53]</t>
+          <t>[ 0.36,  0.36]</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.12, 0.5]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.18, 0.51]</t>
+          <t>[ 0.18,  0.18]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.03, 1.29]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.03, 0.84]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-0.65, 0.74]</t>
+          <t>[-0.65, -0.65]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.23, 0.28]</t>
+          <t>[-0.23, -0.23]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[-0.93, 0.97]</t>
+          <t>[-0.93, -0.93]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[-0.9, 0.96]</t>
+          <t>[-0.90, -0.90]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[-1, 0.93]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[0.62, 0.7]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.53, 0.58]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.52, 0.57]</t>
+          <t>[ 0.52,  0.52]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.46, 0.5]</t>
+          <t>[ 0.46,  0.46]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[15.3, 18.86]</t>
+          <t>[15.30, 15.30]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[14.83, 18.27]</t>
+          <t>[14.83, 14.83]</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[-0.35, -0.15]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[-0.19, 0.05]</t>
+          <t>[-0.19, -0.19]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
